--- a/20160311 - 005/running_logs/logs.xlsx
+++ b/20160311 - 005/running_logs/logs.xlsx
@@ -73,11 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,19 +407,15 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="35.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,13 +425,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">

--- a/20160311 - 005/running_logs/logs.xlsx
+++ b/20160311 - 005/running_logs/logs.xlsx
@@ -407,12 +407,12 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="93.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/20160311 - 005/running_logs/logs.xlsx
+++ b/20160311 - 005/running_logs/logs.xlsx
@@ -411,9 +411,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
